--- a/Code Helpers/ADO SP SQLDataReader.xlsx
+++ b/Code Helpers/ADO SP SQLDataReader.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krishnaraj.menon\Desktop\Fav\CodeHelpers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectsWork\git\shortcuts\Shortcuts\Code Helpers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -71,25 +71,10 @@
     <t>IsActive</t>
   </si>
   <si>
-    <t>ImportFileDetailsId</t>
-  </si>
-  <si>
-    <t>[pkImportFileDetails]</t>
-  </si>
-  <si>
-    <t>ProcessingImportFileName</t>
-  </si>
-  <si>
-    <t>ImportFileStatus</t>
-  </si>
-  <si>
-    <t>ImportFileType</t>
-  </si>
-  <si>
-    <t>ClientMappingId</t>
-  </si>
-  <si>
     <t>Guid</t>
+  </si>
+  <si>
+    <t>TestId</t>
   </si>
 </sst>
 </file>
@@ -422,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +461,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D13" si="0">CONCATENATE(A3," = reader[""",B3,"""] == DBNull.Value ? ",IF(C3="DateTime","DateTime.MinValue",IF(C3="Guid","new Guid()",IF(C3="Int32","0",IF(C3="Boolean","false","null"))))," : ",IF(C3="Guid",CONCATENATE("Guid.Parse(Convert.ToString(reader[""",B3,"""])),"), CONCATENATE("Convert.To", C3, "(reader[""",B3,"""]),")))</f>
+        <f t="shared" ref="D3:D9" si="0">CONCATENATE(A3," = reader[""",B3,"""] == DBNull.Value ? ",IF(C3="DateTime","DateTime.MinValue",IF(C3="Guid","new Guid()",IF(C3="Int32","0",IF(C3="Boolean","false","null"))))," : ",IF(C3="Guid",CONCATENATE("Guid.Parse(Convert.ToString(reader[""",B3,"""])),"), CONCATENATE("Convert.To", C3, "(reader[""",B3,"""]),")))</f>
         <v>StdId = reader["StdId"] == DBNull.Value ? null : Convert.ToString(reader["StdId"]),</v>
       </c>
     </row>
@@ -557,77 +542,17 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>ProcessingImportFileName = reader["ProcessingImportFileName"] == DBNull.Value ? null : Convert.ToString(reader["ProcessingImportFileName"]),</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportFileDetailsId = reader["[pkImportFileDetails]"] == DBNull.Value ? 0 : Convert.ToInt32(reader["[pkImportFileDetails]"]),</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportFileStatus = reader["ImportFileStatus"] == DBNull.Value ? null : Convert.ToString(reader["ImportFileStatus"]),</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>ImportFileType = reader["ImportFileType"] == DBNull.Value ? null : Convert.ToString(reader["ImportFileType"]),</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>ClientMappingId = reader["ClientMappingId"] == DBNull.Value ? new Guid() : Guid.Parse(Convert.ToString(reader["ClientMappingId"])),</v>
+        <v>TestId = reader["TestId"] == DBNull.Value ? new Guid() : Guid.Parse(Convert.ToString(reader["TestId"])),</v>
       </c>
     </row>
   </sheetData>
